--- a/5 5/ExactModelData.xlsx
+++ b/5 5/ExactModelData.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1813E5D-801D-4C20-A70A-673DB0BA36BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A800F3B-8D31-42E1-91B9-B6C508D358BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="3615" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
     <sheet name="Distances" sheetId="1" r:id="rId2"/>
     <sheet name="Times" sheetId="4" r:id="rId3"/>
-    <sheet name="HorseTrailer" sheetId="2" r:id="rId4"/>
-    <sheet name="HorseStore" sheetId="5" r:id="rId5"/>
-    <sheet name="TrailerStore" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AverageUnload">'1D'!$L$2:$L$8</definedName>
+    <definedName name="CoordinatesX">'1D'!$G$3:$G$7</definedName>
+    <definedName name="CoordinatesY">'1D'!$H$3:$H$7</definedName>
     <definedName name="Demand">'1D'!$I$2:$I$8</definedName>
-    <definedName name="DistanceCost">'1D'!$B$2:$B$6</definedName>
+    <definedName name="DistanceCost">'1D'!$C$2:$C$6</definedName>
     <definedName name="Distances">Distances!$A$1:$G$7</definedName>
-    <definedName name="Horses">'1D'!$A$2:$A$6</definedName>
-    <definedName name="HorseStore">HorseStore!$A$1:$E$5</definedName>
-    <definedName name="HorseTrailer">HorseTrailer!$A$1:$E$5</definedName>
     <definedName name="Locations">'1D'!$F$2:$F$8</definedName>
     <definedName name="PalletCapacity">'1D'!$E$2:$E$6</definedName>
     <definedName name="Stores">'1D'!$F$3:$F$7</definedName>
-    <definedName name="TimeCost">'1D'!$C$2:$C$6</definedName>
+    <definedName name="TimeCost">'1D'!$D$2:$D$6</definedName>
     <definedName name="Times">Times!$A$1:$G$7</definedName>
-    <definedName name="Trailers">'1D'!$D$2:$D$6</definedName>
-    <definedName name="TrailerStore">TrailerStore!$A$1:$E$5</definedName>
+    <definedName name="Vehicles">'1D'!$A$2:$A$6</definedName>
+    <definedName name="VehicleTypes">'1D'!$B$2:$B$6</definedName>
     <definedName name="WindowEnd">'1D'!$K$2:$K$8</definedName>
     <definedName name="WindowStart">'1D'!$J$2:$J$8</definedName>
   </definedNames>
@@ -78,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Pallets</t>
   </si>
@@ -98,12 +94,6 @@
     <t>Time Cost</t>
   </si>
   <si>
-    <t>Trailer</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -113,6 +103,81 @@
     <t>SP2</t>
   </si>
   <si>
+    <t>Depot</t>
+  </si>
+  <si>
+    <t>Average Unload</t>
+  </si>
+  <si>
+    <t>DepotReturn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Max X &amp; Y</t>
+  </si>
+  <si>
+    <t>Min X &amp; Y</t>
+  </si>
+  <si>
+    <t>Num stores</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Max Demand</t>
+  </si>
+  <si>
+    <t>Distance Cost Min</t>
+  </si>
+  <si>
+    <t>Distance Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Max</t>
+  </si>
+  <si>
+    <t>Time Cost Min</t>
+  </si>
+  <si>
+    <t>Chance of having window</t>
+  </si>
+  <si>
+    <t>Unload Min</t>
+  </si>
+  <si>
+    <t>Unload Max</t>
+  </si>
+  <si>
+    <t>Total Demand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle Types</t>
+  </si>
+  <si>
+    <t>Rigid</t>
+  </si>
+  <si>
+    <t>8 metre</t>
+  </si>
+  <si>
+    <t>11 metre</t>
+  </si>
+  <si>
+    <t>Number of vehicle types</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
     <t>SP3</t>
   </si>
   <si>
@@ -120,87 +185,6 @@
   </si>
   <si>
     <t>SP5</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>C 4</t>
-  </si>
-  <si>
-    <t>C 5</t>
-  </si>
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Average Unload</t>
-  </si>
-  <si>
-    <t>DepotReturn</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Max X &amp; Y</t>
-  </si>
-  <si>
-    <t>Min X &amp; Y</t>
-  </si>
-  <si>
-    <t>Num stores</t>
-  </si>
-  <si>
-    <t>Max Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Min Trailer Capacity</t>
-  </si>
-  <si>
-    <t>Number of vehicles</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Max Demand</t>
-  </si>
-  <si>
-    <t>Distance Cost Min</t>
-  </si>
-  <si>
-    <t>Distance Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Max</t>
-  </si>
-  <si>
-    <t>Time Cost Min</t>
-  </si>
-  <si>
-    <t>Chance of having window</t>
-  </si>
-  <si>
-    <t>Unload Min</t>
-  </si>
-  <si>
-    <t>Unload Max</t>
-  </si>
-  <si>
-    <t>Compatability Chance</t>
-  </si>
-  <si>
-    <t>Total Demand</t>
   </si>
 </sst>
 </file>
@@ -276,17 +260,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,19 +411,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-96.539148840442977</c:v>
+                  <c:v>89.060139353006477</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.206546214142492</c:v>
+                  <c:v>-53.730087278304367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-23.102970631117969</c:v>
+                  <c:v>-7.9039720060928147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.232496882657188</c:v>
+                  <c:v>-32.573457520569818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-28.518117646296673</c:v>
+                  <c:v>-67.418947837875308</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -456,19 +441,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-34.536912566291363</c:v>
+                  <c:v>-30.971069815953541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-99.90884686176247</c:v>
+                  <c:v>-93.224554245946337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-38.160132890861959</c:v>
+                  <c:v>96.477611436909214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.517446818376456</c:v>
+                  <c:v>46.667791268310268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4581683381493917</c:v>
+                  <c:v>85.712733111385418</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1233,15 +1218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1535,18 +1520,18 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
@@ -1554,7 +1539,7 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
@@ -1566,30 +1551,30 @@
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1601,34 +1586,46 @@
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>8 metre</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.0604582397354076</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1"/>
+        <v>13.224374361491611</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1"/>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B6" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.1472019828993056</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C6" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>9.3331011642627288</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" cm="1">
-        <f t="array" aca="1" ref="E2:E6" ca="1">_xlfn.RANDARRAY(P8,1,P14,P13,TRUE)</f>
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1647,106 +1644,134 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L7" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>0.14961255831996428</v>
+        <v>0.14789280089017845</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>5</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
+        <v>1.040729996986159</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
+        <v>11.982676158702967</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <f ca="1"/>
-        <v>1.3244417177652013</v>
-      </c>
-      <c r="C3" s="2">
-        <f ca="1"/>
-        <v>10.3905841879665</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.040729996986159</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1"/>
+        <v>11.982676158702967</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H7" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-96.539148840442977</v>
+        <v>89.060139353006477</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-34.536912566291363</v>
+        <v>-30.971069815953541</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" aca="1" ref="I3:I7" ca="1">_xlfn.RANDARRAY(P2,1,0,ROUNDUP((P17/P2),0),TRUE)</f>
-        <v>20</v>
+        <f t="array" aca="1" ref="I3:I7" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
+        <v>22</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>3.4741305154911528E-2</v>
+        <v>3.2304936268012646E-2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>1.0604582397354076</v>
+      </c>
+      <c r="T3">
+        <f ca="1"/>
+        <v>13.224374361491611</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <f ca="1"/>
-        <v>0.85261775681661067</v>
-      </c>
-      <c r="C4" s="2">
-        <f ca="1"/>
-        <v>9.0959674462230389</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.1208501045248869</v>
+      </c>
+      <c r="D4" s="8">
+        <f ca="1"/>
+        <v>8.0076786339612998</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>11.206546214142492</v>
+        <v>-53.730087278304367</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-99.90884686176247</v>
+        <v>-93.224554245946337</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
+        <f t="shared" ref="J4:J8" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
         <v>0</v>
       </c>
       <c r="K4">
@@ -1755,164 +1780,179 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>0.12377793031379289</v>
+        <v>5.4564959486128828E-2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>-100</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>1.1208501045248869</v>
+      </c>
+      <c r="T4">
+        <f ca="1"/>
+        <v>8.0076786339612998</v>
+      </c>
+      <c r="U4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f ca="1"/>
-        <v>0.79522927740503158</v>
-      </c>
-      <c r="C5" s="2">
-        <f ca="1"/>
-        <v>7.8673327697836992</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>11 metre</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.1208501045248869</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1"/>
+        <v>8.0076786339612998</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>-23.102970631117969</v>
+        <v>-7.9039720060928147</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-38.160132890861959</v>
+        <v>96.477611436909214</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>7.3989098370600082E-2</v>
+        <v>2.5983951075209427E-2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5">
         <v>0.33</v>
       </c>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <f ca="1"/>
-        <v>1.166946279661625</v>
-      </c>
-      <c r="C6" s="2">
-        <f ca="1"/>
-        <v>12.64265190208698</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
+        <v>Rigid</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
+        <v>1.040729996986159</v>
+      </c>
+      <c r="D6" s="8">
+        <f ca="1"/>
+        <v>11.982676158702967</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>84.232496882657188</v>
+        <v>-32.573457520569818</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>87.517446818376456</v>
+        <v>46.667791268310268</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>9.6579498144263837E-2</v>
+        <v>0.10622411786483782</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-28.518117646296673</v>
+        <v>-67.418947837875308</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>2.4581683381493917</v>
+        <v>85.712733111385418</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
+        <f t="shared" ref="K7:K8" ca="1" si="2">IF(J7=0,24,J7+1)</f>
         <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.14142990438493655</v>
+        <v>0.14677820650080106</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1933,90 +1973,66 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(E:E)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17">
-        <f ca="1">SUM(E:E)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="5">
-        <f ca="1">P18/P17</f>
-        <v>0.56302521008403361</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="5">
+        <f ca="1">P15/P14</f>
+        <v>0.75438596491228072</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2051,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,23 +2063,23 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>102.5309981832268</v>
+        <v>94.291651736098046</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>100.53538859176312</v>
+        <v>107.59990610260584</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>44.608777098577185</v>
+        <v>96.800838230070781</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>121.46776127308104</v>
+        <v>56.911447677132081</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>28.62386461794944</v>
+        <v>109.0503881010505</v>
       </c>
       <c r="G1">
         <f>SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
@@ -2073,7 +2089,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>102.5309981832268</v>
+        <v>94.291651736098046</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2081,33 +2097,33 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>126.02628533892091</v>
+        <v>155.77080966951564</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>73.525505748088008</v>
+        <v>160.14120408175285</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>218.11844154550457</v>
+        <v>144.30012002373832</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>77.430592764366338</v>
+        <v>195.19429959319422</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>102.5309981832268</v>
+        <v>94.291651736098046</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>100.53538859176312</v>
+        <v>107.59990610260584</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>126.02628533892091</v>
+        <v>155.77080966951564</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2115,33 +2131,33 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>70.640262055114817</v>
+        <v>195.15876743233341</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>201.15020515454123</v>
+        <v>141.48311318382136</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>109.80462066672726</v>
+        <v>179.46012846930566</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>100.53538859176312</v>
+        <v>107.59990610260584</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>44.608777098577185</v>
+        <v>96.800838230070781</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>73.525505748088008</v>
+        <v>160.14120408175285</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>70.640262055114817</v>
+        <v>195.15876743233341</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2149,33 +2165,33 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>165.27479126585717</v>
+        <v>55.584185707601733</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>40.977679435598887</v>
+        <v>60.480699017297958</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>44.608777098577185</v>
+        <v>96.800838230070781</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>121.46776127308104</v>
+        <v>56.911447677132081</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>218.11844154550457</v>
+        <v>144.30012002373832</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>201.15020515454123</v>
+        <v>141.48311318382136</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>165.27479126585717</v>
+        <v>55.584185707601733</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2183,33 +2199,33 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>141.23661682521839</v>
+        <v>52.332740029378847</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>121.46776127308104</v>
+        <v>56.911447677132081</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>28.62386461794944</v>
+        <v>109.0503881010505</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>77.430592764366338</v>
+        <v>195.19429959319422</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>109.80462066672726</v>
+        <v>179.46012846930566</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>40.977679435598887</v>
+        <v>60.480699017297958</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>141.23661682521839</v>
+        <v>52.332740029378847</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2217,7 +2233,7 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>28.62386461794944</v>
+        <v>109.0503881010505</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,23 +2243,23 @@
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>102.5309981832268</v>
+        <v>94.291651736098046</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>100.53538859176312</v>
+        <v>107.59990610260584</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>44.608777098577185</v>
+        <v>96.800838230070781</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>121.46776127308104</v>
+        <v>56.911447677132081</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>28.62386461794944</v>
+        <v>109.0503881010505</v>
       </c>
       <c r="G7">
         <f>SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2262,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,23 +2291,23 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.2816374772903349</v>
+        <v>1.1786456467012256</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.256692357397039</v>
+        <v>1.3449988262825729</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.5576097137322148</v>
+        <v>1.2100104778758847</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!E1/80</f>
-        <v>1.5183470159135131</v>
+        <v>0.71139309596415101</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.35779830772436799</v>
+        <v>1.3631298512631314</v>
       </c>
       <c r="G1">
         <f>Distances!G1/80</f>
@@ -2301,7 +2317,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.2816374772903349</v>
+        <v>1.1786456467012256</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2309,33 +2325,33 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.5753285667365113</v>
+        <v>1.9471351208689456</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.91906882185110006</v>
+        <v>2.0017650510219105</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>2.7264805193188071</v>
+        <v>1.803751500296729</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>0.96788240955457927</v>
+        <v>2.4399287449149276</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.2816374772903349</v>
+        <v>1.1786456467012256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.256692357397039</v>
+        <v>1.3449988262825729</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.5753285667365113</v>
+        <v>1.9471351208689456</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2343,33 +2359,33 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.88300327568893522</v>
+        <v>2.4394845929041677</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>2.5143775644317654</v>
+        <v>1.768538914797767</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.3725577583340907</v>
+        <v>2.2432516058663206</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.256692357397039</v>
+        <v>1.3449988262825729</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.5576097137322148</v>
+        <v>1.2100104778758847</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.91906882185110006</v>
+        <v>2.0017650510219105</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.88300327568893522</v>
+        <v>2.4394845929041677</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2377,33 +2393,33 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>2.0659348908232147</v>
+        <v>0.69480232134502162</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.51222099294498613</v>
+        <v>0.75600873771622445</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>0.5576097137322148</v>
+        <v>1.2100104778758847</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.5183470159135131</v>
+        <v>0.71139309596415101</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>2.7264805193188071</v>
+        <v>1.803751500296729</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>2.5143775644317654</v>
+        <v>1.768538914797767</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>2.0659348908232147</v>
+        <v>0.69480232134502162</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2411,33 +2427,33 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.7654577103152298</v>
+        <v>0.65415925036723555</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.5183470159135131</v>
+        <v>0.71139309596415101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.35779830772436799</v>
+        <v>1.3631298512631314</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>0.96788240955457927</v>
+        <v>2.4399287449149276</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.3725577583340907</v>
+        <v>2.2432516058663206</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.51222099294498613</v>
+        <v>0.75600873771622445</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.7654577103152298</v>
+        <v>0.65415925036723555</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -2445,7 +2461,7 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.35779830772436799</v>
+        <v>1.3631298512631314</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,411 +2471,27 @@
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.2816374772903349</v>
+        <v>1.1786456467012256</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.256692357397039</v>
+        <v>1.3449988262825729</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>0.5576097137322148</v>
+        <v>1.2100104778758847</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.5183470159135131</v>
+        <v>0.71139309596415101</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.35779830772436799</v>
+        <v>1.3631298512631314</v>
       </c>
       <c r="G7">
-        <f>Distances!G7/80</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D636C-B1F2-40ED-AFFD-CEAECA9A3EA3}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3193DF46-A5F5-411E-9E65-0CD84739E551}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14196F-B2E4-4597-BD06-5E39E2E8AD11}">
-  <sheetPr>
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f ca="1">IF(RAND()&lt;'1D'!$P$15,1,0)</f>
-        <v>1</v>
+        <f>Distances!H7/80</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
